--- a/finanzas.xlsx
+++ b/finanzas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/brandon/MyProjects/compareExcelEbcRuby/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5219AAD4-FA96-A243-B4F7-399081143A0A}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8359F541-3DC8-D741-A514-6169140A2867}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="21140" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="139">
   <si>
     <t>CLAVE</t>
   </si>
@@ -642,111 +642,6 @@
   </si>
   <si>
     <t>FEF27406</t>
-  </si>
-  <si>
-    <t>FFC27402</t>
-  </si>
-  <si>
-    <t>FFC27403</t>
-  </si>
-  <si>
-    <t>FFC27404</t>
-  </si>
-  <si>
-    <t>FFC27405</t>
-  </si>
-  <si>
-    <t>FFC27406</t>
-  </si>
-  <si>
-    <t>FMF27402</t>
-  </si>
-  <si>
-    <t>FMF27403</t>
-  </si>
-  <si>
-    <t>FMF27404</t>
-  </si>
-  <si>
-    <t>FMF27405</t>
-  </si>
-  <si>
-    <t>FMF27406</t>
-  </si>
-  <si>
-    <t>FRI27402</t>
-  </si>
-  <si>
-    <t>FRI27403</t>
-  </si>
-  <si>
-    <t>FRI27404</t>
-  </si>
-  <si>
-    <t>FRI27405</t>
-  </si>
-  <si>
-    <t>FRI27406</t>
-  </si>
-  <si>
-    <t>FBA27402</t>
-  </si>
-  <si>
-    <t>FBA27403</t>
-  </si>
-  <si>
-    <t>FBA27404</t>
-  </si>
-  <si>
-    <t>FBA27405</t>
-  </si>
-  <si>
-    <t>FBA27406</t>
-  </si>
-  <si>
-    <t>FMF27604</t>
-  </si>
-  <si>
-    <t>FMF27605</t>
-  </si>
-  <si>
-    <t>FMF27606</t>
-  </si>
-  <si>
-    <t>FMF27607</t>
-  </si>
-  <si>
-    <t>FMF27608</t>
-  </si>
-  <si>
-    <t>FBA27604</t>
-  </si>
-  <si>
-    <t>FBA27605</t>
-  </si>
-  <si>
-    <t>FBA27606</t>
-  </si>
-  <si>
-    <t>FBA27607</t>
-  </si>
-  <si>
-    <t>FBA27608</t>
-  </si>
-  <si>
-    <t>FFC27604</t>
-  </si>
-  <si>
-    <t>FFC27605</t>
-  </si>
-  <si>
-    <t>FFC27606</t>
-  </si>
-  <si>
-    <t>FFC27607</t>
-  </si>
-  <si>
-    <t>FFC27608</t>
   </si>
 </sst>
 </file>
@@ -1237,8 +1132,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="B64" sqref="B64:B69"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="A65" sqref="A65:A69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1455,7 +1350,7 @@
     </row>
     <row r="16" spans="1:4" ht="60" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>139</v>
+        <v>33</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>34</v>
@@ -1469,7 +1364,7 @@
     </row>
     <row r="17" spans="1:4" ht="60" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>140</v>
+        <v>33</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>34</v>
@@ -1483,7 +1378,7 @@
     </row>
     <row r="18" spans="1:4" ht="75" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>141</v>
+        <v>33</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>34</v>
@@ -1497,7 +1392,7 @@
     </row>
     <row r="19" spans="1:4" ht="75" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>142</v>
+        <v>33</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>34</v>
@@ -1511,7 +1406,7 @@
     </row>
     <row r="20" spans="1:4" ht="60" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>143</v>
+        <v>33</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>34</v>
@@ -1539,7 +1434,7 @@
     </row>
     <row r="22" spans="1:4" ht="105" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>144</v>
+        <v>47</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>48</v>
@@ -1553,7 +1448,7 @@
     </row>
     <row r="23" spans="1:4" ht="45" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>145</v>
+        <v>47</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>48</v>
@@ -1567,7 +1462,7 @@
     </row>
     <row r="24" spans="1:4" ht="60" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>146</v>
+        <v>47</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>48</v>
@@ -1581,7 +1476,7 @@
     </row>
     <row r="25" spans="1:4" ht="30" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>147</v>
+        <v>47</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>48</v>
@@ -1595,7 +1490,7 @@
     </row>
     <row r="26" spans="1:4" ht="75" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>148</v>
+        <v>47</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>48</v>
@@ -1623,7 +1518,7 @@
     </row>
     <row r="28" spans="1:4" ht="60" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>149</v>
+        <v>61</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>62</v>
@@ -1637,7 +1532,7 @@
     </row>
     <row r="29" spans="1:4" ht="45" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>150</v>
+        <v>61</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>62</v>
@@ -1651,7 +1546,7 @@
     </row>
     <row r="30" spans="1:4" ht="60" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>151</v>
+        <v>61</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>62</v>
@@ -1665,7 +1560,7 @@
     </row>
     <row r="31" spans="1:4" ht="60" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>152</v>
+        <v>61</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>62</v>
@@ -1679,7 +1574,7 @@
     </row>
     <row r="32" spans="1:4" ht="75" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>153</v>
+        <v>61</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>62</v>
@@ -1707,7 +1602,7 @@
     </row>
     <row r="34" spans="1:4" ht="75" x14ac:dyDescent="0.2">
       <c r="A34" s="9" t="s">
-        <v>154</v>
+        <v>75</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>76</v>
@@ -1721,7 +1616,7 @@
     </row>
     <row r="35" spans="1:4" ht="45" x14ac:dyDescent="0.2">
       <c r="A35" s="9" t="s">
-        <v>155</v>
+        <v>75</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>76</v>
@@ -1735,7 +1630,7 @@
     </row>
     <row r="36" spans="1:4" ht="30" x14ac:dyDescent="0.2">
       <c r="A36" s="9" t="s">
-        <v>156</v>
+        <v>75</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>76</v>
@@ -1749,7 +1644,7 @@
     </row>
     <row r="37" spans="1:4" ht="45" x14ac:dyDescent="0.2">
       <c r="A37" s="9" t="s">
-        <v>157</v>
+        <v>75</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>76</v>
@@ -1763,7 +1658,7 @@
     </row>
     <row r="38" spans="1:4" ht="45" x14ac:dyDescent="0.2">
       <c r="A38" s="9" t="s">
-        <v>158</v>
+        <v>75</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>76</v>
@@ -1873,7 +1768,7 @@
     </row>
     <row r="53" spans="1:4" ht="45" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
-        <v>159</v>
+        <v>91</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>92</v>
@@ -1887,7 +1782,7 @@
     </row>
     <row r="54" spans="1:4" ht="45" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
-        <v>160</v>
+        <v>91</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>92</v>
@@ -1901,7 +1796,7 @@
     </row>
     <row r="55" spans="1:4" ht="60" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
-        <v>161</v>
+        <v>91</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>92</v>
@@ -1915,7 +1810,7 @@
     </row>
     <row r="56" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
-        <v>162</v>
+        <v>91</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>92</v>
@@ -1929,7 +1824,7 @@
     </row>
     <row r="57" spans="1:4" ht="45" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
-        <v>163</v>
+        <v>91</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>92</v>
@@ -1957,7 +1852,7 @@
     </row>
     <row r="59" spans="1:4" ht="45" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
-        <v>164</v>
+        <v>105</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>106</v>
@@ -1971,7 +1866,7 @@
     </row>
     <row r="60" spans="1:4" ht="30" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
-        <v>165</v>
+        <v>105</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>106</v>
@@ -1985,7 +1880,7 @@
     </row>
     <row r="61" spans="1:4" ht="60" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
-        <v>166</v>
+        <v>105</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>106</v>
@@ -1999,7 +1894,7 @@
     </row>
     <row r="62" spans="1:4" ht="60" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
-        <v>167</v>
+        <v>105</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>106</v>
@@ -2013,7 +1908,7 @@
     </row>
     <row r="63" spans="1:4" ht="45" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
-        <v>168</v>
+        <v>105</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>106</v>
@@ -2041,7 +1936,7 @@
     </row>
     <row r="65" spans="1:4" ht="60" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
-        <v>169</v>
+        <v>119</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>120</v>
@@ -2055,7 +1950,7 @@
     </row>
     <row r="66" spans="1:4" ht="30" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
-        <v>170</v>
+        <v>119</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>120</v>
@@ -2069,7 +1964,7 @@
     </row>
     <row r="67" spans="1:4" ht="60" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
-        <v>171</v>
+        <v>119</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>120</v>
@@ -2083,7 +1978,7 @@
     </row>
     <row r="68" spans="1:4" ht="30" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
-        <v>172</v>
+        <v>119</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>120</v>
@@ -2097,7 +1992,7 @@
     </row>
     <row r="69" spans="1:4" ht="90" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
-        <v>173</v>
+        <v>119</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>120</v>
